--- a/biology/Botanique/Septimer/Septimer.xlsx
+++ b/biology/Botanique/Septimer/Septimer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le septimer  est un cépage de cuve allemand de raisins blancs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage est une obtention de Georg Scheu dans l'institut Landesanstalt für Rebenzüchtung à Alzey. L'origine génétique est vérifiée et c'est un croisement des cépages gewurztraminer x  müller-thurgau réalisé en 1932. Le cépage est autorisé dans de nombreux Länder en Allemagne. Ce cépage est très peu multiplié.
 Du même croisement est issu le cépage würzer.
@@ -544,7 +558,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le septimer  est connu sous le sigle AZ 3952
 </t>
